--- a/fichier test.xlsx
+++ b/fichier test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,71 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>theo</t>
+  </si>
+  <si>
+    <t>tirel</t>
+  </si>
+  <si>
+    <t>pierre</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>jacque</t>
+  </si>
+  <si>
+    <t>arthur</t>
+  </si>
+  <si>
+    <t>henri</t>
+  </si>
+  <si>
+    <t>rené</t>
+  </si>
+  <si>
+    <t>critère 1.1</t>
+  </si>
+  <si>
+    <t>critère 1.2</t>
+  </si>
+  <si>
+    <t>critère 1.3</t>
+  </si>
+  <si>
+    <t>critère 2.1</t>
+  </si>
+  <si>
+    <t>critère 3.1</t>
+  </si>
+  <si>
+    <t>critère 4.1</t>
+  </si>
+  <si>
+    <t>critère 2.2</t>
+  </si>
+  <si>
+    <t>critère 2.3</t>
+  </si>
+  <si>
+    <t>critère 3.2</t>
+  </si>
+  <si>
+    <t>critère 3.3</t>
+  </si>
+  <si>
+    <t>critère 4.2</t>
+  </si>
+  <si>
+    <t>critère 4.3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,7 +134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +179,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +209,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +430,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>